--- a/cds_fuzzy_logic/fuzzy_rule/rule(main).xlsx
+++ b/cds_fuzzy_logic/fuzzy_rule/rule(main).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cđs\ducdo\Digital_Race_2023\autocontrol_custom_DL\cds-fuzzy-logic\fuzzy_rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cđs\main\Digital_Race_2023\cds_fuzzy_logic\fuzzy_rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118FB06-1BA9-4743-826E-97D129C8DF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD724E00-DCE2-4B54-A25A-EC09E3B1FBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steering_Only" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37CD425-577C-4310-A02D-45063F27BD2C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cds_fuzzy_logic/fuzzy_rule/rule(main).xlsx
+++ b/cds_fuzzy_logic/fuzzy_rule/rule(main).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Steering_Only" sheetId="1" state="visible" r:id="rId2"/>
@@ -247,8 +247,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -812,10 +812,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
@@ -826,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
@@ -854,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/cds_fuzzy_logic/fuzzy_rule/rule(main).xlsx
+++ b/cds_fuzzy_logic/fuzzy_rule/rule(main).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Steering_Only" sheetId="1" state="visible" r:id="rId2"/>
@@ -248,7 +248,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,7 +320,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,7 +334,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -739,7 +739,7 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/cds_fuzzy_logic/fuzzy_rule/rule(main).xlsx
+++ b/cds_fuzzy_logic/fuzzy_rule/rule(main).xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
